--- a/derelict.xlsx
+++ b/derelict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7210BE2C-E90A-48FA-A325-0360326751C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E883E-010B-4B50-BF5D-4C3B11FACF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{857516A4-33F6-489E-A74F-F0AA9C2AAFD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Waterway Wringout</t>
+  </si>
+  <si>
+    <t>Deaths Door</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9859650-5E04-4F7E-A60E-1F6763D736E5}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -504,6 +507,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
